--- a/examples/datasheet/ItemBox.xlsx
+++ b/examples/datasheet/ItemBox.xlsx
@@ -29,43 +29,56 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Repeat</t>
-  </si>
-  <si>
-    <t>GoodsID[0]</t>
-  </si>
-  <si>
-    <t>Num[0]</t>
-  </si>
-  <si>
-    <t>Probability[0]</t>
-  </si>
-  <si>
-    <t>GoodsID[1]</t>
-  </si>
-  <si>
-    <t>Num[1]</t>
-  </si>
-  <si>
-    <t>Probability[1]</t>
-  </si>
-  <si>
-    <t>GoodsID[2]</t>
-  </si>
-  <si>
-    <t>Num[2]</t>
-  </si>
-  <si>
-    <t>Probability[2]</t>
+    <t>ID
+唯一ID</t>
+  </si>
+  <si>
+    <t>Total
+全部数量</t>
+  </si>
+  <si>
+    <t>Time
+次数</t>
+  </si>
+  <si>
+    <t>Repeat
+可重复抽取</t>
+  </si>
+  <si>
+    <t>GoodsID[0]
+道具ID</t>
+  </si>
+  <si>
+    <t>LONG_Num[0]
+道具数量</t>
+  </si>
+  <si>
+    <t>Probability[0]
+抽取概率</t>
+  </si>
+  <si>
+    <t>GoodsID[1]
+道具ID</t>
+  </si>
+  <si>
+    <t>LONG_Num[1]
+道具数量</t>
+  </si>
+  <si>
+    <t>Probability[1]
+抽取概率</t>
+  </si>
+  <si>
+    <t>GoodsID[2]
+道具ID</t>
+  </si>
+  <si>
+    <t>LONG_Num[2]
+道具数量</t>
+  </si>
+  <si>
+    <t>Probability[2]
+抽取概率</t>
   </si>
   <si>
     <t>Box01</t>
@@ -735,7 +748,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1065,30 +1078,30 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69166666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1083333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.975" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.9083333333333" style="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="1" customWidth="1"/>
     <col min="14" max="19" width="9" style="1"/>
     <col min="20" max="22" width="8.625" style="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:13">
+    <row r="1" ht="35" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
